--- a/data/06_colima/test2.xlsx
+++ b/data/06_colima/test2.xlsx
@@ -478,141 +478,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0600100010081</t>
+          <t>060020001134A</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
       <c r="C2" t="n">
-        <v>0.364</v>
+        <v>0.018</v>
       </c>
       <c r="D2" t="n">
-        <v>0.389</v>
+        <v>0.019</v>
       </c>
       <c r="E2" t="n">
-        <v>0.365</v>
+        <v>0.02</v>
       </c>
       <c r="F2" t="n">
-        <v>0.412</v>
+        <v>0.022</v>
       </c>
       <c r="G2" t="n">
-        <v>0.333</v>
+        <v>0.25</v>
       </c>
       <c r="H2" t="n">
-        <v>0.241</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>060010001019A</t>
+          <t>0600200011640</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.151</v>
+        <v>0.083</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159</v>
+        <v>0.08</v>
       </c>
       <c r="D3" t="n">
-        <v>0.167</v>
+        <v>0.077</v>
       </c>
       <c r="E3" t="n">
-        <v>0.153</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.176</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.296</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0600100010359</t>
+          <t>0600200011316</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.044</v>
+        <v>0.499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.045</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.056</v>
+        <v>0.462</v>
       </c>
       <c r="E4" t="n">
-        <v>0.044</v>
+        <v>0.489</v>
       </c>
       <c r="F4" t="n">
-        <v>0.059</v>
+        <v>0.37</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="n">
-        <v>0.894</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0600100010151</t>
+          <t>0600200011320</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.546</v>
+        <v>0.601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.598</v>
       </c>
       <c r="D5" t="n">
-        <v>0.556</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.553</v>
+        <v>0.588</v>
       </c>
       <c r="F5" t="n">
-        <v>0.588</v>
+        <v>0.478</v>
       </c>
       <c r="G5" t="n">
-        <v>0.333</v>
+        <v>0.25</v>
       </c>
       <c r="H5" t="n">
-        <v>0.184</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0600100010166</t>
+          <t>0600200011373</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.51</v>
+        <v>0.117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.116</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.115</v>
       </c>
       <c r="E6" t="n">
-        <v>0.508</v>
+        <v>0.118</v>
       </c>
       <c r="F6" t="n">
-        <v>0.529</v>
+        <v>0.109</v>
       </c>
       <c r="G6" t="n">
-        <v>0.667</v>
+        <v>0.25</v>
       </c>
       <c r="H6" t="n">
-        <v>0.161</v>
+        <v>0.082</v>
       </c>
     </row>
   </sheetData>

--- a/data/06_colima/test2.xlsx
+++ b/data/06_colima/test2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/06_colima/test2.xlsx
+++ b/data/06_colima/test2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
